--- a/Project1/s06_2.xlsx
+++ b/Project1/s06_2.xlsx
@@ -386,2382 +386,2382 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>32.58201198875877</v>
+        <v>48.08197581328309</v>
       </c>
       <c r="B2">
-        <v>30.70331841781407</v>
+        <v>47.36533549359317</v>
       </c>
       <c r="C2">
-        <v>34.46070555970346</v>
+        <v>48.79861613297302</v>
       </c>
       <c r="D2">
-        <v>29.70879811579705</v>
+        <v>46.98596902414961</v>
       </c>
       <c r="E2">
-        <v>35.45522586172048</v>
+        <v>49.17798260241658</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>32.52999428809325</v>
+        <v>48.16103249069177</v>
       </c>
       <c r="B3">
-        <v>30.57994605071268</v>
+        <v>47.18941643357353</v>
       </c>
       <c r="C3">
-        <v>34.48004252547382</v>
+        <v>49.13264854781</v>
       </c>
       <c r="D3">
-        <v>29.54765286997205</v>
+        <v>46.67507396202087</v>
       </c>
       <c r="E3">
-        <v>35.51233570621445</v>
+        <v>49.64699101936267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>32.23148543664871</v>
+        <v>48.22200097390315</v>
       </c>
       <c r="B4">
-        <v>30.21260289357861</v>
+        <v>47.05916499649372</v>
       </c>
       <c r="C4">
-        <v>34.25036797971881</v>
+        <v>49.38483695131258</v>
       </c>
       <c r="D4">
-        <v>29.14387103250064</v>
+        <v>46.44359681372299</v>
       </c>
       <c r="E4">
-        <v>35.31909984079678</v>
+        <v>50.00040513408331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>32.83423168118973</v>
+        <v>48.25841979033625</v>
       </c>
       <c r="B5">
-        <v>30.74878560964645</v>
+        <v>46.94625541491462</v>
       </c>
       <c r="C5">
-        <v>34.91967775273301</v>
+        <v>49.57058416575787</v>
       </c>
       <c r="D5">
-        <v>29.64481714507748</v>
+        <v>46.25163755326724</v>
       </c>
       <c r="E5">
-        <v>36.02364621730198</v>
+        <v>50.26520202740525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>33.05701774387645</v>
+        <v>48.28023318627416</v>
       </c>
       <c r="B6">
-        <v>30.90706799750623</v>
+        <v>46.84144965984687</v>
       </c>
       <c r="C6">
-        <v>35.20696749024668</v>
+        <v>49.71901671270145</v>
       </c>
       <c r="D6">
-        <v>29.76895335009922</v>
+        <v>46.07980366852108</v>
       </c>
       <c r="E6">
-        <v>36.34508213765368</v>
+        <v>50.48066270402724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>33.13581823571555</v>
+        <v>48.29293940151202</v>
       </c>
       <c r="B7">
-        <v>30.92324450665711</v>
+        <v>46.74203612300255</v>
       </c>
       <c r="C7">
-        <v>35.34839196477398</v>
+        <v>49.8438426800215</v>
       </c>
       <c r="D7">
-        <v>29.75197872532396</v>
+        <v>45.92103752014533</v>
       </c>
       <c r="E7">
-        <v>36.51965774610713</v>
+        <v>50.66484128287871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>34.09911122732851</v>
+        <v>48.30033350560804</v>
       </c>
       <c r="B8">
-        <v>31.82563787117901</v>
+        <v>46.64715602949139</v>
       </c>
       <c r="C8">
-        <v>36.372584583478</v>
+        <v>49.95351098172468</v>
       </c>
       <c r="D8">
-        <v>30.62213377463362</v>
+        <v>45.77201673681338</v>
       </c>
       <c r="E8">
-        <v>37.5760886800234</v>
+        <v>50.82865027440269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>33.90941682791998</v>
+        <v>48.30462044804126</v>
       </c>
       <c r="B9">
-        <v>31.57663314833806</v>
+        <v>46.55638372869571</v>
       </c>
       <c r="C9">
-        <v>36.24220050750191</v>
+        <v>50.05285716738681</v>
       </c>
       <c r="D9">
-        <v>30.34173206311661</v>
+        <v>45.63092311233426</v>
       </c>
       <c r="E9">
-        <v>37.47710159272336</v>
+        <v>50.97831778374827</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>33.75022526436364</v>
+        <v>48.3071051237708</v>
       </c>
       <c r="B10">
-        <v>31.35960227227018</v>
+        <v>46.46940178139123</v>
       </c>
       <c r="C10">
-        <v>36.14084825645711</v>
+        <v>50.14480846615038</v>
       </c>
       <c r="D10">
-        <v>30.09408290451609</v>
+        <v>45.4965803956439</v>
       </c>
       <c r="E10">
-        <v>37.4063676242112</v>
+        <v>51.1176298518977</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>33.9034473704442</v>
+        <v>48.30854448177443</v>
       </c>
       <c r="B11">
-        <v>31.45635176852588</v>
+        <v>46.38591043467161</v>
       </c>
       <c r="C11">
-        <v>36.35054297236252</v>
+        <v>50.23117852887724</v>
       </c>
       <c r="D11">
-        <v>30.16093760693882</v>
+        <v>45.36812944964839</v>
       </c>
       <c r="E11">
-        <v>37.64595713394958</v>
+        <v>51.24895951390047</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>33.54604220294345</v>
+        <v>48.30937823466858</v>
       </c>
       <c r="B12">
-        <v>31.04374815956443</v>
+        <v>46.30561950448566</v>
       </c>
       <c r="C12">
-        <v>36.04833624632246</v>
+        <v>50.31313696485149</v>
       </c>
       <c r="D12">
-        <v>29.71911370813268</v>
+        <v>45.24489370634036</v>
       </c>
       <c r="E12">
-        <v>37.37297069775421</v>
+        <v>51.37386276299679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>33.64605145105944</v>
+        <v>48.30986115362407</v>
       </c>
       <c r="B13">
-        <v>31.08975059354438</v>
+        <v>46.22825363361017</v>
       </c>
       <c r="C13">
-        <v>36.2023523085745</v>
+        <v>50.39146867363797</v>
       </c>
       <c r="D13">
-        <v>29.73652666166929</v>
+        <v>45.1263171754766</v>
       </c>
       <c r="E13">
-        <v>37.5555762404496</v>
+        <v>51.49340513177154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>33.23591067157511</v>
+        <v>48.31014086192935</v>
       </c>
       <c r="B14">
-        <v>30.58249481150698</v>
+        <v>46.15355814000341</v>
       </c>
       <c r="C14">
-        <v>35.88932653164323</v>
+        <v>50.46672358385528</v>
       </c>
       <c r="D14">
-        <v>29.17786130269866</v>
+        <v>45.01193220743796</v>
       </c>
       <c r="E14">
-        <v>37.29396004045155</v>
+        <v>51.60834951642074</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>33.18389297090959</v>
+        <v>48.31030286822995</v>
       </c>
       <c r="B15">
-        <v>30.47948650717986</v>
+        <v>46.08130194235087</v>
       </c>
       <c r="C15">
-        <v>35.88829943463932</v>
+        <v>50.53930379410904</v>
       </c>
       <c r="D15">
-        <v>29.04786020330487</v>
+        <v>44.90134012830858</v>
       </c>
       <c r="E15">
-        <v>37.31992573851431</v>
+        <v>51.71926560815132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>32.88538411946505</v>
+        <v>48.31039670162438</v>
       </c>
       <c r="B16">
-        <v>30.13093083148479</v>
+        <v>46.01127800457164</v>
       </c>
       <c r="C16">
-        <v>35.63983740744531</v>
+        <v>50.60951539867713</v>
       </c>
       <c r="D16">
-        <v>28.67281133918439</v>
+        <v>44.79419808460572</v>
       </c>
       <c r="E16">
-        <v>37.09795689974571</v>
+        <v>51.82659531864305</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>33.48813036400607</v>
+        <v>48.31045104946341</v>
       </c>
       <c r="B17">
-        <v>30.68452348887764</v>
+        <v>45.9433021846184</v>
       </c>
       <c r="C17">
-        <v>36.2917372391345</v>
+        <v>50.67759991430842</v>
       </c>
       <c r="D17">
-        <v>29.20038365931105</v>
+        <v>44.69020926920425</v>
       </c>
       <c r="E17">
-        <v>37.77587706870109</v>
+        <v>51.93069282972257</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>33.71091642669279</v>
+        <v>48.31048252745106</v>
       </c>
       <c r="B18">
-        <v>30.85900301551259</v>
+        <v>45.87721126446291</v>
       </c>
       <c r="C18">
-        <v>36.562829837873</v>
+        <v>50.74375379043921</v>
       </c>
       <c r="D18">
-        <v>29.34929125044432</v>
+        <v>44.58911526584859</v>
       </c>
       <c r="E18">
-        <v>38.07254160294126</v>
+        <v>52.03184978905352</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>33.78971691853189</v>
+        <v>48.31050075933475</v>
       </c>
       <c r="B19">
-        <v>30.89030168447664</v>
+        <v>45.81286067609948</v>
       </c>
       <c r="C19">
-        <v>36.68913215258714</v>
+        <v>50.80814084257003</v>
       </c>
       <c r="D19">
-        <v>29.35544397333038</v>
+        <v>44.49068988234949</v>
       </c>
       <c r="E19">
-        <v>38.22398986373339</v>
+        <v>52.13031163632002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>34.75300991014484</v>
+        <v>48.31051131914451</v>
       </c>
       <c r="B20">
-        <v>31.8068586421218</v>
+        <v>45.75012222635291</v>
       </c>
       <c r="C20">
-        <v>37.69916117816788</v>
+        <v>50.87090041193611</v>
       </c>
       <c r="D20">
-        <v>30.24726036905764</v>
+        <v>44.39473411345074</v>
       </c>
       <c r="E20">
-        <v>39.25875945123204</v>
+        <v>52.22628852483828</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>34.56331551073632</v>
+        <v>48.31051743532977</v>
       </c>
       <c r="B21">
-        <v>31.57115811369387</v>
+        <v>45.68888197750418</v>
       </c>
       <c r="C21">
-        <v>37.55547290777878</v>
+        <v>50.93215289315536</v>
       </c>
       <c r="D21">
-        <v>29.98720566705152</v>
+        <v>44.30107199741032</v>
       </c>
       <c r="E21">
-        <v>39.13942535442114</v>
+        <v>52.31996287324922</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>34.40412394717998</v>
+        <v>48.31052097779148</v>
       </c>
       <c r="B22">
-        <v>31.36665715999069</v>
+        <v>45.62903835119948</v>
       </c>
       <c r="C22">
-        <v>37.44159073436927</v>
+        <v>50.99200360438349</v>
       </c>
       <c r="D22">
-        <v>29.75871937104988</v>
+        <v>44.20954719367628</v>
       </c>
       <c r="E22">
-        <v>39.04952852331009</v>
+        <v>52.41149476190669</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>34.55734605326054</v>
+        <v>48.3105230295663</v>
       </c>
       <c r="B23">
-        <v>31.4752358868518</v>
+        <v>45.57050047212039</v>
       </c>
       <c r="C23">
-        <v>37.63945621966928</v>
+        <v>51.05054558701222</v>
       </c>
       <c r="D23">
-        <v>29.84366532050063</v>
+        <v>44.12002014711758</v>
       </c>
       <c r="E23">
-        <v>39.27102678602044</v>
+        <v>52.50102591201503</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>34.19994088575979</v>
+        <v>48.31052421794327</v>
       </c>
       <c r="B24">
-        <v>31.07382481745998</v>
+        <v>45.51318674130047</v>
       </c>
       <c r="C24">
-        <v>37.3260569540596</v>
+        <v>51.10786169458607</v>
       </c>
       <c r="D24">
-        <v>29.41895893381168</v>
+        <v>44.03236573081742</v>
       </c>
       <c r="E24">
-        <v>38.98092283770789</v>
+        <v>52.58868270506912</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>34.29995013387578</v>
+        <v>48.31052490624483</v>
       </c>
       <c r="B25">
-        <v>31.13043908844869</v>
+        <v>45.457023616843</v>
       </c>
       <c r="C25">
-        <v>37.46946117930288</v>
+        <v>51.16402619564666</v>
       </c>
       <c r="D25">
-        <v>29.45260129153784</v>
+        <v>43.94647127981933</v>
       </c>
       <c r="E25">
-        <v>39.14729897621373</v>
+        <v>52.67457853267033</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>33.88980935439145</v>
+        <v>48.3105253049054</v>
       </c>
       <c r="B26">
-        <v>30.6414648653612</v>
+        <v>45.40194457577031</v>
       </c>
       <c r="C26">
-        <v>37.13815384342169</v>
+        <v>51.21910603404049</v>
       </c>
       <c r="D26">
-        <v>28.92189516424108</v>
+        <v>43.86223494461117</v>
       </c>
       <c r="E26">
-        <v>38.85772354454181</v>
+        <v>52.75881566519963</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>33.83779165372593</v>
+        <v>48.31052553580746</v>
       </c>
       <c r="B27">
-        <v>30.54766391851332</v>
+        <v>45.34788923095096</v>
       </c>
       <c r="C27">
-        <v>37.12791938893854</v>
+        <v>51.27316184066395</v>
       </c>
       <c r="D27">
-        <v>28.80597550295503</v>
+        <v>43.77956430652443</v>
       </c>
       <c r="E27">
-        <v>38.86960780449683</v>
+        <v>52.84148676509049</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>33.53928280228139</v>
+        <v>48.3105256695447</v>
       </c>
       <c r="B28">
-        <v>30.20789583757474</v>
+        <v>45.29480257926389</v>
       </c>
       <c r="C28">
-        <v>36.87066976698804</v>
+        <v>51.3262487598255</v>
       </c>
       <c r="D28">
-        <v>28.44436610525676</v>
+        <v>43.6983752081745</v>
       </c>
       <c r="E28">
-        <v>38.63419949930602</v>
+        <v>52.92267613091489</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>34.14202904682241</v>
+        <v>48.31052574700458</v>
       </c>
       <c r="B29">
-        <v>30.76988763471948</v>
+        <v>45.2426343601207</v>
       </c>
       <c r="C29">
-        <v>37.51417045892534</v>
+        <v>51.37841713388846</v>
       </c>
       <c r="D29">
-        <v>28.9847838011431</v>
+        <v>43.6185907609802</v>
       </c>
       <c r="E29">
-        <v>39.29927429250172</v>
+        <v>53.00246073302897</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>34.36481510950913</v>
+        <v>48.31052579186893</v>
       </c>
       <c r="B30">
-        <v>30.95240594620212</v>
+        <v>45.19133850652683</v>
       </c>
       <c r="C30">
-        <v>37.77722427281614</v>
+        <v>51.42971307721103</v>
       </c>
       <c r="D30">
-        <v>29.14598565276853</v>
+        <v>43.54014049901665</v>
       </c>
       <c r="E30">
-        <v>39.58364456624973</v>
+        <v>53.08091108472122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>34.44361560134823</v>
+        <v>48.31052581785413</v>
       </c>
       <c r="B31">
-        <v>30.99140835200416</v>
+        <v>45.14087267370435</v>
       </c>
       <c r="C31">
-        <v>37.8958228506923</v>
+        <v>51.4801789620039</v>
       </c>
       <c r="D31">
-        <v>29.16392022443444</v>
+        <v>43.46295965427356</v>
       </c>
       <c r="E31">
-        <v>39.72331097826202</v>
+        <v>53.15809198143469</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>35.40690859296119</v>
+        <v>48.31052583290461</v>
       </c>
       <c r="B32">
-        <v>31.91535686242276</v>
+        <v>45.09119783280048</v>
       </c>
       <c r="C32">
-        <v>38.89846032349961</v>
+        <v>51.52985383300874</v>
       </c>
       <c r="D32">
-        <v>30.06704102461585</v>
+        <v>43.38698853306597</v>
       </c>
       <c r="E32">
-        <v>40.74677616130653</v>
+        <v>53.23406313274324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>35.21721419355266</v>
+        <v>48.31052584162177</v>
       </c>
       <c r="B33">
-        <v>31.68675642130442</v>
+        <v>45.04227791933687</v>
       </c>
       <c r="C33">
-        <v>38.74767196580091</v>
+        <v>51.57877376390667</v>
       </c>
       <c r="D33">
-        <v>29.81784496910358</v>
+        <v>43.31217197709806</v>
       </c>
       <c r="E33">
-        <v>40.61658341800175</v>
+        <v>53.30887970614548</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>35.05802262999632</v>
+        <v>48.3105258466707</v>
       </c>
       <c r="B34">
-        <v>31.48908291682798</v>
+        <v>44.99407952783712</v>
       </c>
       <c r="C34">
-        <v>38.62696234316466</v>
+        <v>51.62697216550428</v>
       </c>
       <c r="D34">
-        <v>29.59980035562994</v>
+        <v>43.23845889569164</v>
       </c>
       <c r="E34">
-        <v>40.51624490436272</v>
+        <v>53.38259279764976</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>35.21124473607688</v>
+        <v>48.31052584959502</v>
       </c>
       <c r="B35">
-        <v>31.60423360900335</v>
+        <v>44.94657164554472</v>
       </c>
       <c r="C35">
-        <v>38.81825586315041</v>
+        <v>51.67448005364532</v>
       </c>
       <c r="D35">
-        <v>29.69479725868249</v>
+        <v>43.1658018581114</v>
       </c>
       <c r="E35">
-        <v>40.72769221347127</v>
+        <v>53.45524984107863</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>34.85383956857613</v>
+        <v>48.31052585128877</v>
       </c>
       <c r="B36">
-        <v>31.20915468981989</v>
+        <v>44.89972541935398</v>
       </c>
       <c r="C36">
-        <v>38.49852444733237</v>
+        <v>51.72132628322355</v>
       </c>
       <c r="D36">
-        <v>29.27977506004087</v>
+        <v>43.09415673686691</v>
       </c>
       <c r="E36">
-        <v>40.42790407711139</v>
+        <v>53.52689496571062</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>34.95384881669212</v>
+        <v>48.31052585226978</v>
       </c>
       <c r="B37">
-        <v>31.27187564187994</v>
+        <v>44.85351395106981</v>
       </c>
       <c r="C37">
-        <v>38.6358219915043</v>
+        <v>51.76753775346975</v>
       </c>
       <c r="D37">
-        <v>29.32275678052597</v>
+        <v>43.02348239444454</v>
       </c>
       <c r="E37">
-        <v>40.58494085285827</v>
+        <v>53.59756931009502</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>34.54370803720779</v>
+        <v>48.31052585283797</v>
       </c>
       <c r="B38">
-        <v>30.79365895588028</v>
+        <v>44.80791211692328</v>
       </c>
       <c r="C38">
-        <v>38.2937571185353</v>
+        <v>51.81313958875266</v>
       </c>
       <c r="D38">
-        <v>28.80850288646067</v>
+        <v>42.95374040719671</v>
       </c>
       <c r="E38">
-        <v>40.27891318795491</v>
+        <v>53.66731129847923</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>34.49169033654227</v>
+        <v>48.31052585316706</v>
       </c>
       <c r="B39">
-        <v>30.70539046635668</v>
+        <v>44.76289640793646</v>
       </c>
       <c r="C39">
-        <v>38.27799020672786</v>
+        <v>51.85815529839767</v>
       </c>
       <c r="D39">
-        <v>28.7010443884966</v>
+        <v>42.88489482115237</v>
       </c>
       <c r="E39">
-        <v>40.28233628458794</v>
+        <v>53.73615688518176</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>34.19318148509773</v>
+        <v>48.31052585335767</v>
       </c>
       <c r="B40">
-        <v>30.37097462235868</v>
+        <v>44.71844478827515</v>
       </c>
       <c r="C40">
-        <v>38.01538834783678</v>
+        <v>51.9026069184402</v>
       </c>
       <c r="D40">
-        <v>28.34762053082831</v>
+        <v>42.81691193535806</v>
       </c>
       <c r="E40">
-        <v>40.03874243936716</v>
+        <v>53.80413977135729</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>34.79592772963875</v>
+        <v>48.31052585346807</v>
       </c>
       <c r="B41">
-        <v>30.9381480707972</v>
+        <v>44.67453656917824</v>
       </c>
       <c r="C41">
-        <v>38.6537073884803</v>
+        <v>51.9465151377579</v>
       </c>
       <c r="D41">
-        <v>28.89596287851118</v>
+        <v>42.74976010905323</v>
       </c>
       <c r="E41">
-        <v>40.69589258076632</v>
+        <v>53.87129159788292</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>35.01871379232548</v>
+        <v>48.31052585353201</v>
       </c>
       <c r="B42">
-        <v>31.12568637259495</v>
+        <v>44.63115229642311</v>
       </c>
       <c r="C42">
-        <v>38.91174121205601</v>
+        <v>51.98989941064092</v>
       </c>
       <c r="D42">
-        <v>29.06484214280176</v>
+        <v>42.68340958955403</v>
       </c>
       <c r="E42">
-        <v>40.97258544184919</v>
+        <v>53.93764211750999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>35.09751428416457</v>
+        <v>48.31052585356905</v>
       </c>
       <c r="B43">
-        <v>31.16955538858332</v>
+        <v>44.58827364959406</v>
       </c>
       <c r="C43">
-        <v>39.02547317974582</v>
+        <v>52.03277805754404</v>
       </c>
       <c r="D43">
-        <v>29.09021955246847</v>
+        <v>42.61783235819215</v>
       </c>
       <c r="E43">
-        <v>41.10480901586067</v>
+        <v>54.00321934894594</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>36.06080727577752</v>
+        <v>48.3105258535905</v>
       </c>
       <c r="B44">
-        <v>32.09822482490309</v>
+        <v>44.5458833516762</v>
       </c>
       <c r="C44">
-        <v>40.02338972665195</v>
+        <v>52.0751683555048</v>
       </c>
       <c r="D44">
-        <v>30.00056038576345</v>
+        <v>42.55300199204752</v>
       </c>
       <c r="E44">
-        <v>42.1210541657916</v>
+        <v>54.06804971513348</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>35.871112876369</v>
+        <v>48.31052585360293</v>
       </c>
       <c r="B45">
-        <v>31.87420678858309</v>
+        <v>44.5039650877107</v>
       </c>
       <c r="C45">
-        <v>39.86801896415492</v>
+        <v>52.11708661949515</v>
       </c>
       <c r="D45">
-        <v>29.75837251361951</v>
+        <v>42.48889353954033</v>
       </c>
       <c r="E45">
-        <v>41.9838532391185</v>
+        <v>54.13215816766552</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>35.71192131281266</v>
+        <v>48.31052585361012</v>
       </c>
       <c r="B46">
-        <v>31.68098384502899</v>
+        <v>44.46250343142582</v>
       </c>
       <c r="C46">
-        <v>39.74285878059634</v>
+        <v>52.15854827579442</v>
       </c>
       <c r="D46">
-        <v>29.5471344457062</v>
+        <v>42.42548340822182</v>
       </c>
       <c r="E46">
-        <v>41.87670817991912</v>
+        <v>54.19556829899843</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>35.86514341889322</v>
+        <v>48.31052585361429</v>
       </c>
       <c r="B47">
-        <v>31.80045948729604</v>
+        <v>44.42148377890848</v>
       </c>
       <c r="C47">
-        <v>39.9298273504904</v>
+        <v>52.19956792832011</v>
       </c>
       <c r="D47">
-        <v>29.64874578913129</v>
+        <v>42.36274926333315</v>
       </c>
       <c r="E47">
-        <v>42.08154104865515</v>
+        <v>54.25830244389544</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>35.50773825139247</v>
+        <v>48.31052585361671</v>
       </c>
       <c r="B48">
-        <v>31.40958573368568</v>
+        <v>44.38089228850804</v>
       </c>
       <c r="C48">
-        <v>39.60589076909925</v>
+        <v>52.24015941872538</v>
       </c>
       <c r="D48">
-        <v>29.24015483624981</v>
+        <v>42.3006699358958</v>
       </c>
       <c r="E48">
-        <v>41.77532166653512</v>
+        <v>54.32038177133762</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>35.60774749950846</v>
+        <v>48.31052585361811</v>
       </c>
       <c r="B49">
-        <v>31.47639752002372</v>
+        <v>44.34071582627124</v>
       </c>
       <c r="C49">
-        <v>39.7390974789932</v>
+        <v>52.28033588096498</v>
       </c>
       <c r="D49">
-        <v>29.28939294786824</v>
+        <v>42.2392253392612</v>
       </c>
       <c r="E49">
-        <v>41.92610205114868</v>
+        <v>54.38182636797502</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>35.19760672002413</v>
+        <v>48.31052585361892</v>
       </c>
       <c r="B50">
-        <v>31.00547190524092</v>
+        <v>44.30094191629848</v>
       </c>
       <c r="C50">
-        <v>39.38974153480733</v>
+        <v>52.32010979093936</v>
       </c>
       <c r="D50">
-        <v>28.78628978497754</v>
+        <v>42.17839639318726</v>
       </c>
       <c r="E50">
-        <v>41.60892365507071</v>
+        <v>54.44265531405058</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>35.14558901935861</v>
+        <v>48.31052585361939</v>
       </c>
       <c r="B51">
-        <v>30.92099520457363</v>
+        <v>44.26155869548981</v>
       </c>
       <c r="C51">
-        <v>39.37018283414359</v>
+        <v>52.35949301174897</v>
       </c>
       <c r="D51">
-        <v>28.68463032764136</v>
+        <v>42.11816495462809</v>
       </c>
       <c r="E51">
-        <v>41.60654771107586</v>
+        <v>54.50288675261069</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>34.84708016791407</v>
+        <v>48.31052585361966</v>
       </c>
       <c r="B52">
-        <v>30.59027485236091</v>
+        <v>44.22255487221513</v>
       </c>
       <c r="C52">
-        <v>39.10388548346723</v>
+        <v>52.39849683502419</v>
       </c>
       <c r="D52">
-        <v>28.33685823693982</v>
+        <v>42.05851375452563</v>
       </c>
       <c r="E52">
-        <v>41.35730209888833</v>
+        <v>54.56253795271368</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>35.4498264124551</v>
+        <v>48.31052585361981</v>
       </c>
       <c r="B53">
-        <v>31.16105151872102</v>
+        <v>44.18391968850072</v>
       </c>
       <c r="C53">
-        <v>39.73860130618918</v>
+        <v>52.43713201873891</v>
       </c>
       <c r="D53">
-        <v>28.8907112308929</v>
+        <v>41.99942633997883</v>
       </c>
       <c r="E53">
-        <v>42.00894159401729</v>
+        <v>54.6216253672608</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>35.67261247514182</v>
+        <v>48.31052585361991</v>
       </c>
       <c r="B54">
-        <v>31.35210455549558</v>
+        <v>44.14564288537311</v>
       </c>
       <c r="C54">
-        <v>39.99312039478806</v>
+        <v>52.4754088218667</v>
       </c>
       <c r="D54">
-        <v>29.06496581846736</v>
+        <v>41.94088702124169</v>
       </c>
       <c r="E54">
-        <v>42.28025913181628</v>
+        <v>54.68016468599813</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>35.75141296698091</v>
+        <v>48.31052585361996</v>
       </c>
       <c r="B55">
-        <v>31.39940339916882</v>
+        <v>44.107714671044</v>
       </c>
       <c r="C55">
-        <v>40.103422534793</v>
+        <v>52.51333703619591</v>
       </c>
       <c r="D55">
-        <v>29.09558869692069</v>
+        <v>41.88288082306626</v>
       </c>
       <c r="E55">
-        <v>42.40723723704112</v>
+        <v>54.73817088417366</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>36.71470595859387</v>
+        <v>48.31052585361999</v>
       </c>
       <c r="B56">
-        <v>32.33142113178531</v>
+        <v>44.07012569165664</v>
       </c>
       <c r="C56">
-        <v>41.09799078540242</v>
+        <v>52.55092601558333</v>
       </c>
       <c r="D56">
-        <v>30.01105030750437</v>
+        <v>41.82539343996314</v>
       </c>
       <c r="E56">
-        <v>43.41836160968337</v>
+        <v>54.79565826727683</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>36.52501155918534</v>
+        <v>48.31052585362</v>
       </c>
       <c r="B57">
-        <v>32.11067305069597</v>
+        <v>44.03286700434602</v>
       </c>
       <c r="C57">
-        <v>40.93935006767472</v>
+        <v>52.58818470289398</v>
       </c>
       <c r="D57">
-        <v>29.77386340032779</v>
+        <v>41.76841119500055</v>
       </c>
       <c r="E57">
-        <v>43.27615971804289</v>
+        <v>54.85264051223945</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>36.365819995629</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B58">
-        <v>31.9206447390014</v>
+        <v>43.99593005239306</v>
       </c>
       <c r="C58">
-        <v>40.81099525225661</v>
+        <v>52.62512165484695</v>
       </c>
       <c r="D58">
-        <v>29.56751110022663</v>
+        <v>41.71192100180592</v>
       </c>
       <c r="E58">
-        <v>43.16412889103138</v>
+        <v>54.90913070543409</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>36.51904210170956</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B59">
-        <v>32.04324254668741</v>
+        <v>43.95930664227725</v>
       </c>
       <c r="C59">
-        <v>40.99484165673171</v>
+        <v>52.66174506496278</v>
       </c>
       <c r="D59">
-        <v>29.67389738360691</v>
+        <v>41.65591032947098</v>
       </c>
       <c r="E59">
-        <v>43.36418681981221</v>
+        <v>54.96514137776905</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>36.16163693420881</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B60">
-        <v>31.6554211991004</v>
+        <v>43.92298892245333</v>
       </c>
       <c r="C60">
-        <v>40.66785266931721</v>
+        <v>52.6980627847867</v>
       </c>
       <c r="D60">
-        <v>29.26997468289163</v>
+        <v>41.60036717009351</v>
       </c>
       <c r="E60">
-        <v>43.05329918552599</v>
+        <v>55.02068453714652</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>36.2616461823248</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B61">
-        <v>31.72521819921511</v>
+        <v>43.88696936369647</v>
       </c>
       <c r="C61">
-        <v>40.7980741654345</v>
+        <v>52.73408234354356</v>
       </c>
       <c r="D61">
-        <v>29.32377828500277</v>
+        <v>41.54528000871777</v>
       </c>
       <c r="E61">
-        <v>43.19951407964684</v>
+        <v>55.07577169852226</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>35.85150540284047</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B62">
-        <v>31.25965169238</v>
+        <v>43.85124074087627</v>
       </c>
       <c r="C62">
-        <v>40.44335911330093</v>
+        <v>52.76981096636376</v>
       </c>
       <c r="D62">
-        <v>28.82887117044063</v>
+        <v>41.49063779546042</v>
       </c>
       <c r="E62">
-        <v>42.8741396352403</v>
+        <v>55.13041391177961</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>35.79948770217495</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B63">
-        <v>31.17798155234981</v>
+        <v>43.81579611603499</v>
       </c>
       <c r="C63">
-        <v>40.4209938520001</v>
+        <v>52.80525559120504</v>
       </c>
       <c r="D63">
-        <v>28.73150397719825</v>
+        <v>41.43642991963067</v>
       </c>
       <c r="E63">
-        <v>42.86747142715165</v>
+        <v>55.18462178760936</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>35.50097885073041</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B64">
-        <v>30.85000930799271</v>
+        <v>43.78062882265735</v>
       </c>
       <c r="C64">
-        <v>40.15194839346812</v>
+        <v>52.84042288458268</v>
       </c>
       <c r="D64">
-        <v>28.38793475477564</v>
+        <v>41.38264618567329</v>
       </c>
       <c r="E64">
-        <v>42.61402294668519</v>
+        <v>55.23840552156674</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>36.10372509527143</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B65">
-        <v>31.42347763578001</v>
+        <v>43.74573245103129</v>
       </c>
       <c r="C65">
-        <v>40.78397255476285</v>
+        <v>52.87531925620874</v>
       </c>
       <c r="D65">
-        <v>28.945904289645</v>
+        <v>41.32927679077957</v>
       </c>
       <c r="E65">
-        <v>43.26154590089786</v>
+        <v>55.29177491646045</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>36.32651115795816</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B66">
-        <v>31.61716779856314</v>
+        <v>43.71110083460832</v>
       </c>
       <c r="C66">
-        <v>41.03585451735318</v>
+        <v>52.90995087263171</v>
       </c>
       <c r="D66">
-        <v>29.12419201341034</v>
+        <v>41.27631230402746</v>
       </c>
       <c r="E66">
-        <v>43.52883030250598</v>
+        <v>55.34473940321256</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>36.40531164979725</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B67">
-        <v>31.66705105425376</v>
+        <v>43.67672803728146</v>
       </c>
       <c r="C67">
-        <v>41.14357224534074</v>
+        <v>52.94432366995856</v>
       </c>
       <c r="D67">
-        <v>29.15876740896206</v>
+        <v>41.22374364692477</v>
       </c>
       <c r="E67">
-        <v>43.65185589063243</v>
+        <v>55.39730806031525</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>37.3686046414102</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B68">
-        <v>32.60160222208187</v>
+        <v>43.64260834150638</v>
       </c>
       <c r="C68">
-        <v>42.13560706073854</v>
+        <v>52.97844336573365</v>
       </c>
       <c r="D68">
-        <v>30.07810357434746</v>
+        <v>41.17156207524201</v>
       </c>
       <c r="E68">
-        <v>44.65910570847294</v>
+        <v>55.44948963199802</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>37.17891024200169</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B69">
-        <v>32.38333825729701</v>
+        <v>43.60873623719838</v>
       </c>
       <c r="C69">
-        <v>41.97448222670636</v>
+        <v>53.01231547004165</v>
       </c>
       <c r="D69">
-        <v>29.84471579521311</v>
+        <v>41.11975916203183</v>
       </c>
       <c r="E69">
-        <v>44.51310468879026</v>
+        <v>55.50129254520819</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>37.01971867844534</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B70">
-        <v>32.19574632621462</v>
+        <v>43.57510641134423</v>
       </c>
       <c r="C70">
-        <v>41.84369103067607</v>
+        <v>53.0459452958958</v>
       </c>
       <c r="D70">
-        <v>29.64208961771276</v>
+        <v>41.06832678174172</v>
       </c>
       <c r="E70">
-        <v>44.39734773917793</v>
+        <v>55.55272492549831</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>37.1729407845259</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B71">
-        <v>32.3207342916313</v>
+        <v>43.54171373827339</v>
       </c>
       <c r="C71">
-        <v>42.0251472774205</v>
+        <v>53.07933796896663</v>
       </c>
       <c r="D71">
-        <v>29.75213133189693</v>
+        <v>41.01725709533503</v>
       </c>
       <c r="E71">
-        <v>44.59375023715487</v>
+        <v>55.60379461190499</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>36.81553561702515</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B72">
-        <v>31.93525832528335</v>
+        <v>43.50855327053815</v>
       </c>
       <c r="C72">
-        <v>41.69581290876695</v>
+        <v>53.11249843670188</v>
       </c>
       <c r="D72">
-        <v>29.3517955822511</v>
+        <v>40.96654253634344</v>
       </c>
       <c r="E72">
-        <v>44.2792756517992</v>
+        <v>55.65450917089659</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>36.91554486514114</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B73">
-        <v>32.0073573138252</v>
+        <v>43.47562023035671</v>
       </c>
       <c r="C73">
-        <v>41.82373241645709</v>
+        <v>53.14543147688332</v>
       </c>
       <c r="D73">
-        <v>29.40911977185269</v>
+        <v>40.91617579778026</v>
       </c>
       <c r="E73">
-        <v>44.4219699584296</v>
+        <v>55.70487590945977</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>36.50540408565681</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B74">
-        <v>31.54594376307919</v>
+        <v>43.44291000157742</v>
       </c>
       <c r="C74">
-        <v>41.46486440823442</v>
+        <v>53.1781417056626</v>
       </c>
       <c r="D74">
-        <v>28.92056405553534</v>
+        <v>40.86614981985074</v>
       </c>
       <c r="E74">
-        <v>44.09024411577827</v>
+        <v>55.75490188738929</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>36.45338638499129</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B75">
-        <v>31.46645894559298</v>
+        <v>43.41041812212579</v>
       </c>
       <c r="C75">
-        <v>41.4403138243896</v>
+        <v>53.21063358511424</v>
       </c>
       <c r="D75">
-        <v>28.82653902471231</v>
+        <v>40.81645777840084</v>
       </c>
       <c r="E75">
-        <v>44.08023374527027</v>
+        <v>55.80459392883919</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>36.15487753354675</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B76">
-        <v>31.14063343493868</v>
+        <v>43.37814027689929</v>
       </c>
       <c r="C76">
-        <v>41.16912163215483</v>
+        <v>53.24291143034074</v>
       </c>
       <c r="D76">
-        <v>28.48625294816927</v>
+        <v>40.76709307405075</v>
       </c>
       <c r="E76">
-        <v>43.82350211892423</v>
+        <v>55.85395863318928</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>36.75762377808778</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B77">
-        <v>31.71621103213769</v>
+        <v>43.34607229107802</v>
       </c>
       <c r="C77">
-        <v>41.79903652403786</v>
+        <v>53.274979416162</v>
       </c>
       <c r="D77">
-        <v>29.0474483322294</v>
+        <v>40.71804932196442</v>
       </c>
       <c r="E77">
-        <v>44.46779922394615</v>
+        <v>55.90300238527561</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>36.9804098407745</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B78">
-        <v>31.91197407915828</v>
+        <v>43.3142101238218</v>
       </c>
       <c r="C78">
-        <v>42.04884560239071</v>
+        <v>53.30684158341823</v>
       </c>
       <c r="D78">
-        <v>29.22890625886351</v>
+        <v>40.66932034221006</v>
       </c>
       <c r="E78">
-        <v>44.73191342268549</v>
+        <v>55.95173136502996</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>37.05921033261359</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B79">
-        <v>31.96389486993297</v>
+        <v>43.28254986232668</v>
       </c>
       <c r="C79">
-        <v>42.15452579529421</v>
+        <v>53.33850184491335</v>
       </c>
       <c r="D79">
-        <v>29.26659779541912</v>
+        <v>40.62090015067044</v>
       </c>
       <c r="E79">
-        <v>44.85182286980805</v>
+        <v>56.00015155656958</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>38.02250332422655</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B80">
-        <v>32.90044921880806</v>
+        <v>43.25108771621627</v>
       </c>
       <c r="C80">
-        <v>43.14455742964503</v>
+        <v>53.36996399102376</v>
       </c>
       <c r="D80">
-        <v>30.18899756184264</v>
+        <v>40.57278295046515</v>
       </c>
       <c r="E80">
-        <v>45.85600908661046</v>
+        <v>56.04826875677488</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>37.83280892481803</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B81">
-        <v>32.68415503730175</v>
+        <v>43.2198200122451</v>
       </c>
       <c r="C81">
-        <v>42.9814628123343</v>
+        <v>53.40123169499493</v>
       </c>
       <c r="D81">
-        <v>29.95862230626729</v>
+        <v>40.52496312384997</v>
       </c>
       <c r="E81">
-        <v>45.70699554336876</v>
+        <v>56.09608858339006</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>37.67361736126168</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B82">
-        <v>32.49850041108186</v>
+        <v>43.18874318929289</v>
       </c>
       <c r="C82">
-        <v>42.84873431144151</v>
+        <v>53.43230851794713</v>
       </c>
       <c r="D82">
-        <v>29.75895898087502</v>
+        <v>40.47743522456144</v>
       </c>
       <c r="E82">
-        <v>45.58827574164835</v>
+        <v>56.14361648267859</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>37.82683946734224</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B83">
-        <v>32.62539408719638</v>
+        <v>43.15785379363065</v>
       </c>
       <c r="C83">
-        <v>43.0282848474881</v>
+        <v>53.46319791360938</v>
       </c>
       <c r="D83">
-        <v>29.87191522806212</v>
+        <v>40.43019397057688</v>
       </c>
       <c r="E83">
-        <v>45.78176370662236</v>
+        <v>56.19085773666315</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>37.46943429984149</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B84">
-        <v>32.24179308823918</v>
+        <v>43.12714847444066</v>
       </c>
       <c r="C84">
-        <v>42.69707551144379</v>
+        <v>53.49390323279937</v>
       </c>
       <c r="D84">
-        <v>29.47444699358841</v>
+        <v>40.38323423726283</v>
       </c>
       <c r="E84">
-        <v>45.46442160609457</v>
+        <v>56.2378174699772</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>37.56944354795748</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B85">
-        <v>32.31573711993499</v>
+        <v>43.09662397957391</v>
       </c>
       <c r="C85">
-        <v>42.82314997597998</v>
+        <v>53.52442772766612</v>
       </c>
       <c r="D85">
-        <v>29.53459293319125</v>
+        <v>40.33655105088657</v>
       </c>
       <c r="E85">
-        <v>45.60429416272372</v>
+        <v>56.28450065635346</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>37.15930276847315</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B86">
-        <v>31.85766407046913</v>
+        <v>43.06627715152982</v>
       </c>
       <c r="C86">
-        <v>42.46094146647717</v>
+        <v>53.5547745557102</v>
       </c>
       <c r="D86">
-        <v>29.05114607271351</v>
+        <v>40.29013958246769</v>
       </c>
       <c r="E86">
-        <v>45.26745946423279</v>
+        <v>56.33091212477234</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>37.10728506780763</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B87">
-        <v>31.77994319040049</v>
+        <v>43.03610492364412</v>
       </c>
       <c r="C87">
-        <v>42.43462694521477</v>
+        <v>53.58494678359591</v>
       </c>
       <c r="D87">
-        <v>28.95981875137199</v>
+        <v>40.24399514194789</v>
       </c>
       <c r="E87">
-        <v>45.25475138424327</v>
+        <v>56.37705656529214</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>36.8087762163631</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B88">
-        <v>31.45585457735343</v>
+        <v>43.00610431647188</v>
       </c>
       <c r="C88">
-        <v>42.16169785537277</v>
+        <v>53.61494739076815</v>
       </c>
       <c r="D88">
-        <v>28.6221890304892</v>
+        <v>40.1981131726594</v>
       </c>
       <c r="E88">
-        <v>44.995363402237</v>
+        <v>56.42293853458062</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>37.41152246090411</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B89">
-        <v>32.03314271715413</v>
+        <v>42.97627243435372</v>
       </c>
       <c r="C89">
-        <v>42.78990220465409</v>
+        <v>53.64477927288631</v>
       </c>
       <c r="D89">
-        <v>29.18600046370683</v>
+        <v>40.15248924607336</v>
       </c>
       <c r="E89">
-        <v>45.63704445810139</v>
+        <v>56.46856246116667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>37.63430852359084</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B90">
-        <v>32.23059061250571</v>
+        <v>42.94660646215379</v>
       </c>
       <c r="C90">
-        <v>43.03802643467597</v>
+        <v>53.67444524508624</v>
       </c>
       <c r="D90">
-        <v>29.37003514350243</v>
+        <v>40.10711905681101</v>
       </c>
       <c r="E90">
-        <v>45.89858190367924</v>
+        <v>56.51393265042902</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>37.71310901542993</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B91">
-        <v>32.28417119508382</v>
+        <v>42.91710366215933</v>
       </c>
       <c r="C91">
-        <v>43.14204683577604</v>
+        <v>53.7039480450807</v>
       </c>
       <c r="D91">
-        <v>29.41026511256753</v>
+        <v>40.06199841790198</v>
       </c>
       <c r="E91">
-        <v>46.01595291829233</v>
+        <v>56.55905328933805</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>38.67640200704288</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B92">
-        <v>33.22236089500619</v>
+        <v>42.88776137113197</v>
       </c>
       <c r="C92">
-        <v>44.13044311907957</v>
+        <v>53.73329033610806</v>
       </c>
       <c r="D92">
-        <v>30.3351659325896</v>
+        <v>40.0171232562747</v>
       </c>
       <c r="E92">
-        <v>47.01763808149616</v>
+        <v>56.60392845096533</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>38.48670760763437</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B93">
-        <v>33.00767821855563</v>
+        <v>42.85857699750196</v>
       </c>
       <c r="C93">
-        <v>43.96573699671311</v>
+        <v>53.76247470973807</v>
       </c>
       <c r="D93">
-        <v>30.10725526131589</v>
+        <v>39.97248960846523</v>
       </c>
       <c r="E93">
-        <v>46.86615995395285</v>
+        <v>56.6485620987748</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>38.32751604407802</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B94">
-        <v>32.82361182607144</v>
+        <v>42.82954801869674</v>
       </c>
       <c r="C94">
-        <v>43.83142026208461</v>
+        <v>53.79150368854329</v>
       </c>
       <c r="D94">
-        <v>29.91002092981252</v>
+        <v>39.9280936165318</v>
       </c>
       <c r="E94">
-        <v>46.74501115834353</v>
+        <v>56.69295809070822</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>38.48073815015858</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B95">
-        <v>32.9520710200455</v>
+        <v>42.80067197859634</v>
       </c>
       <c r="C95">
-        <v>44.00940528027166</v>
+        <v>53.82037972864369</v>
       </c>
       <c r="D95">
-        <v>30.02537142995388</v>
+        <v>39.88393152416303</v>
       </c>
       <c r="E95">
-        <v>46.93610487036328</v>
+        <v>56.737120183077</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>38.12333298265783</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B96">
-        <v>32.57001336010818</v>
+        <v>42.77194648510803</v>
       </c>
       <c r="C96">
-        <v>43.67665260520747</v>
+        <v>53.849105222132</v>
       </c>
       <c r="D96">
-        <v>29.63026352882627</v>
+        <v>39.83999967296882</v>
       </c>
       <c r="E96">
-        <v>46.6164024364894</v>
+        <v>56.78105203427121</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>38.22334223077382</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B97">
-        <v>32.64547907139128</v>
+        <v>42.74336920785372</v>
       </c>
       <c r="C97">
-        <v>43.80120539015637</v>
+        <v>53.8776824993863</v>
       </c>
       <c r="D97">
-        <v>29.6927366765316</v>
+        <v>39.7962944989434</v>
       </c>
       <c r="E97">
-        <v>46.75394778501605</v>
+        <v>56.82475720829662</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>37.81320145128949</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B98">
-        <v>32.19016854394084</v>
+        <v>42.7149378759636</v>
       </c>
       <c r="C98">
-        <v>43.43623435863814</v>
+        <v>53.90611383127643</v>
       </c>
       <c r="D98">
-        <v>29.21351472888787</v>
+        <v>39.75281252909113</v>
       </c>
       <c r="E98">
-        <v>46.4128881736911</v>
+        <v>56.8682391781489</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>37.76118375062397</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B99">
-        <v>32.11391027825449</v>
+        <v>42.68665027597019</v>
       </c>
       <c r="C99">
-        <v>43.40845722299345</v>
+        <v>53.93440143126984</v>
       </c>
       <c r="D99">
-        <v>29.12442428321305</v>
+        <v>39.70955037820561</v>
       </c>
       <c r="E99">
-        <v>46.3979432180349</v>
+        <v>56.91150132903442</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>37.46267489917943</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B100">
-        <v>31.79126446910738</v>
+        <v>42.65850424979724</v>
       </c>
       <c r="C100">
-        <v>43.13408532925149</v>
+        <v>53.96254745744279</v>
       </c>
       <c r="D100">
-        <v>28.7890011404787</v>
+        <v>39.66650474579404</v>
       </c>
       <c r="E100">
-        <v>46.13634865788016</v>
+        <v>56.95454696144598</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>38.06542114372046</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B101">
-        <v>32.36997604601894</v>
+        <v>42.63049769283837</v>
       </c>
       <c r="C101">
-        <v>43.76086624142197</v>
+        <v>53.99055401440166</v>
       </c>
       <c r="D101">
-        <v>29.35498953289685</v>
+        <v>39.62367241313871</v>
       </c>
       <c r="E101">
-        <v>46.77585275454407</v>
+        <v>56.99737929410131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>38.28820720640718</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B102">
-        <v>32.5688284415819</v>
+        <v>42.60262855212047</v>
       </c>
       <c r="C102">
-        <v>44.00758597123246</v>
+        <v>54.01842315511956</v>
       </c>
       <c r="D102">
-        <v>29.54117221040444</v>
+        <v>39.58105024048822</v>
       </c>
       <c r="E102">
-        <v>47.03524220240992</v>
+        <v>57.0400014667518</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>38.36700769824627</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B103">
-        <v>32.62379500410578</v>
+        <v>42.57489482454754</v>
       </c>
       <c r="C103">
-        <v>44.11022039238676</v>
+        <v>54.04615688269249</v>
       </c>
       <c r="D103">
-        <v>29.58352185287951</v>
+        <v>39.53863516437157</v>
       </c>
       <c r="E103">
-        <v>47.15049354361302</v>
+        <v>57.08241654286846</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>39.33030068985923</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B104">
-        <v>33.56335256760787</v>
+        <v>42.54729455522047</v>
       </c>
       <c r="C104">
-        <v>45.09724881211059</v>
+        <v>54.07375715201956</v>
       </c>
       <c r="D104">
-        <v>30.51051463972062</v>
+        <v>39.49642419502857</v>
       </c>
       <c r="E104">
-        <v>48.15008673999783</v>
+        <v>57.12462751221145</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>39.14060629045071</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B105">
-        <v>33.3500200300328</v>
+        <v>42.51982583582896</v>
       </c>
       <c r="C105">
-        <v>44.93119255086862</v>
+        <v>54.10122587141107</v>
       </c>
       <c r="D105">
-        <v>30.28466882767009</v>
+        <v>39.4544144139505</v>
       </c>
       <c r="E105">
-        <v>47.99654375323132</v>
+        <v>57.16663729328953</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>38.98141472689436</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B106">
-        <v>33.16728643161718</v>
+        <v>42.4924868031118</v>
       </c>
       <c r="C106">
-        <v>44.79554302217155</v>
+        <v>54.12856490412823</v>
       </c>
       <c r="D106">
-        <v>30.08947282879682</v>
+        <v>39.41260297152522</v>
       </c>
       <c r="E106">
-        <v>47.87335662499191</v>
+        <v>57.20844873571481</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>39.13463683297492</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B107">
-        <v>33.29706144343648</v>
+        <v>42.4652756373819</v>
       </c>
       <c r="C107">
-        <v>44.97221222251336</v>
+        <v>54.15577606985813</v>
       </c>
       <c r="D107">
-        <v>30.20683569867516</v>
+        <v>39.37098708478149</v>
       </c>
       <c r="E107">
-        <v>48.06243796727468</v>
+        <v>57.25006462245854</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>38.77723166547417</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B108">
-        <v>32.91630298282097</v>
+        <v>42.43819056111288</v>
       </c>
       <c r="C108">
-        <v>44.63816034812737</v>
+        <v>54.18286114612715</v>
       </c>
       <c r="D108">
-        <v>29.8137147514462</v>
+        <v>39.32956403522729</v>
       </c>
       <c r="E108">
-        <v>47.74074857950214</v>
+        <v>57.29148767201274</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>38.87724091359016</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B109">
-        <v>32.99305162212875</v>
+        <v>42.41122983758402</v>
       </c>
       <c r="C109">
-        <v>44.76143020505158</v>
+        <v>54.209821869656</v>
       </c>
       <c r="D109">
-        <v>29.87814996824868</v>
+        <v>39.28833116677753</v>
       </c>
       <c r="E109">
-        <v>47.87633185893165</v>
+        <v>57.3327205404625</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>38.46710013410583</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B110">
-        <v>32.54007514090073</v>
+        <v>42.3843917695808</v>
       </c>
       <c r="C110">
-        <v>44.39412512731093</v>
+        <v>54.23665993765923</v>
       </c>
       <c r="D110">
-        <v>29.40249763626239</v>
+        <v>39.24728588376654</v>
       </c>
       <c r="E110">
-        <v>47.53170263194927</v>
+        <v>57.37376582347348</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>38.41508243344031</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B111">
-        <v>32.46505521798322</v>
+        <v>42.357674698148</v>
       </c>
       <c r="C111">
-        <v>44.3651096488974</v>
+        <v>54.26337700909203</v>
       </c>
       <c r="D111">
-        <v>29.31530107242009</v>
+        <v>39.20642564904129</v>
       </c>
       <c r="E111">
-        <v>47.51486379446053</v>
+        <v>57.41462605819874</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>38.11657358199578</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B112">
-        <v>32.1436327268322</v>
+        <v>42.3310770013931</v>
       </c>
       <c r="C112">
-        <v>44.08951443715936</v>
+        <v>54.28997470584692</v>
       </c>
       <c r="D112">
-        <v>28.98174883311129</v>
+        <v>39.16574798213121</v>
       </c>
       <c r="E112">
-        <v>47.25139833088027</v>
+        <v>57.45530372510882</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>38.7193198265368</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B113">
-        <v>32.72355289862138</v>
+        <v>42.30459709333731</v>
       </c>
       <c r="C113">
-        <v>44.71508675445222</v>
+        <v>54.31645461390271</v>
       </c>
       <c r="D113">
-        <v>29.54958561188837</v>
+        <v>39.12525045749105</v>
       </c>
       <c r="E113">
-        <v>47.88905404118522</v>
+        <v>57.49580124974898</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>38.94210588922352</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B114">
-        <v>32.92359945917907</v>
+        <v>42.27823342281197</v>
       </c>
       <c r="C114">
-        <v>44.96061231926797</v>
+        <v>54.34281828442806</v>
       </c>
       <c r="D114">
-        <v>29.73759460715343</v>
+        <v>39.08493070281305</v>
       </c>
       <c r="E114">
-        <v>48.14661717129361</v>
+        <v>57.53612100442698</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>39.02090638106261</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B115">
-        <v>32.97974604193168</v>
+        <v>42.25198447239819</v>
       </c>
       <c r="C115">
-        <v>45.06206672019354</v>
+        <v>54.36906723484184</v>
       </c>
       <c r="D115">
-        <v>29.78174893483316</v>
+        <v>39.04478639740531</v>
       </c>
       <c r="E115">
-        <v>48.26006382729206</v>
+        <v>57.57626530983472</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>39.98419937267556</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B116">
-        <v>33.92046975818163</v>
+        <v>42.22584875740773</v>
       </c>
       <c r="C116">
-        <v>46.04792898716949</v>
+        <v>54.3952029498323</v>
       </c>
       <c r="D116">
-        <v>30.71052519839714</v>
+        <v>39.0048152706331</v>
       </c>
       <c r="E116">
-        <v>49.25787354695399</v>
+        <v>57.61623643660693</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>39.79450497326705</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B117">
-        <v>33.70828977560169</v>
+        <v>42.19982482490296</v>
       </c>
       <c r="C117">
-        <v>45.88072017093241</v>
+        <v>54.42122688233707</v>
       </c>
       <c r="D117">
-        <v>30.48644206710123</v>
+        <v>38.96501510042008</v>
       </c>
       <c r="E117">
-        <v>49.10256787943286</v>
+        <v>57.65603660681995</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>39.6353134097107</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B118">
-        <v>33.52669539686239</v>
+        <v>42.17391125275442</v>
       </c>
       <c r="C118">
-        <v>45.74393142255902</v>
+        <v>54.44714045448561</v>
       </c>
       <c r="D118">
-        <v>30.29298835437242</v>
+        <v>38.92538371180689</v>
       </c>
       <c r="E118">
-        <v>48.977638465049</v>
+        <v>57.69566799543313</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>39.78853551579126</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B119">
-        <v>33.65759654843096</v>
+        <v>42.14810664873383</v>
       </c>
       <c r="C119">
-        <v>45.91947448315156</v>
+        <v>54.4729450585062</v>
       </c>
       <c r="D119">
-        <v>30.41207350637305</v>
+        <v>38.88591897556418</v>
       </c>
       <c r="E119">
-        <v>49.16499752520947</v>
+        <v>57.73513273167585</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>39.43113034829051</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B120">
-        <v>33.27795139622848</v>
+        <v>42.12240964964136</v>
       </c>
       <c r="C120">
-        <v>45.58430930035254</v>
+        <v>54.49864205759867</v>
       </c>
       <c r="D120">
-        <v>30.02065521743104</v>
+        <v>38.84661880685766</v>
       </c>
       <c r="E120">
-        <v>48.84160547914998</v>
+        <v>57.77443290038237</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>39.5311395964065</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B121">
-        <v>33.35580075463424</v>
+        <v>42.09681892046518</v>
       </c>
       <c r="C121">
-        <v>45.70647843817877</v>
+        <v>54.52423278677485</v>
       </c>
       <c r="D121">
-        <v>30.08677383882458</v>
+        <v>38.80748116396296</v>
       </c>
       <c r="E121">
-        <v>48.97550535398842</v>
+        <v>57.81357054327707</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>39.12099881692217</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B122">
-        <v>32.90483026523134</v>
+        <v>42.07133315357223</v>
       </c>
       <c r="C122">
-        <v>45.337167368613</v>
+        <v>54.5497185536678</v>
       </c>
       <c r="D122">
-        <v>29.61418940659063</v>
+        <v>38.76850404702788</v>
       </c>
       <c r="E122">
-        <v>48.62780822725371</v>
+        <v>57.85254766021215</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>39.06898111625666</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B123">
-        <v>32.83087643152811</v>
+        <v>42.04595106792843</v>
       </c>
       <c r="C123">
-        <v>45.30708580098521</v>
+        <v>54.5751006393116</v>
       </c>
       <c r="D123">
-        <v>29.52862328550261</v>
+        <v>38.72968549687986</v>
       </c>
       <c r="E123">
-        <v>48.60933894701071</v>
+        <v>57.89136621036017</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>38.77047226481212</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B124">
-        <v>32.51050831505695</v>
+        <v>42.02067140834738</v>
       </c>
       <c r="C124">
-        <v>45.03043621456729</v>
+        <v>54.60038029889265</v>
       </c>
       <c r="D124">
-        <v>29.19668357311376</v>
+        <v>38.69102359387696</v>
       </c>
       <c r="E124">
-        <v>48.34426095651048</v>
+        <v>57.93002811336306</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>39.37321850935314</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B125">
-        <v>33.09147136012495</v>
+        <v>41.995492944766</v>
       </c>
       <c r="C125">
-        <v>45.65496565858133</v>
+        <v>54.62555876247403</v>
       </c>
       <c r="D125">
-        <v>29.76611528893581</v>
+        <v>38.65251645680006</v>
       </c>
       <c r="E125">
-        <v>48.98032172977047</v>
+        <v>57.96853525043997</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>39.59600457203986</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B126">
-        <v>33.29254950030035</v>
+        <v>41.97041447154616</v>
       </c>
       <c r="C126">
-        <v>45.89945964377937</v>
+        <v>54.65063723569386</v>
       </c>
       <c r="D126">
-        <v>29.95570194908167</v>
+        <v>38.61416224178473</v>
       </c>
       <c r="E126">
-        <v>49.23630719499805</v>
+        <v>58.0068894654553</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>39.67480506387895</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B127">
-        <v>33.34971657153035</v>
+        <v>41.945434806801</v>
       </c>
       <c r="C127">
-        <v>45.99989355622755</v>
+        <v>54.67561690043903</v>
       </c>
       <c r="D127">
-        <v>30.00141697920687</v>
+        <v>38.57595914129099</v>
       </c>
       <c r="E127">
-        <v>49.34819314855103</v>
+        <v>58.04509256594903</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>40.63809805549191</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B128">
-        <v>34.29144988258656</v>
+        <v>41.92055279174497</v>
       </c>
       <c r="C128">
-        <v>46.98474622839726</v>
+        <v>54.70049891549506</v>
       </c>
       <c r="D128">
-        <v>30.93173728478401</v>
+        <v>38.53790538310929</v>
       </c>
       <c r="E128">
-        <v>50.34445882619981</v>
+        <v>58.08314632413074</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>40.44840365608339</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B129">
-        <v>34.08026879372024</v>
+        <v>41.89576729006659</v>
       </c>
       <c r="C129">
-        <v>46.81653851844654</v>
+        <v>54.72528441717343</v>
       </c>
       <c r="D129">
-        <v>30.70918182959237</v>
+        <v>38.49999922940121</v>
       </c>
       <c r="E129">
-        <v>50.1876254825744</v>
+        <v>58.12105247783882</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>40.28921209252705</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B130">
-        <v>33.89966279544458</v>
+        <v>41.87107718732294</v>
       </c>
       <c r="C130">
-        <v>46.67876138960951</v>
+        <v>54.74997451991709</v>
       </c>
       <c r="D130">
-        <v>30.5172397143395</v>
+        <v>38.46223897577335</v>
       </c>
       <c r="E130">
-        <v>50.06118447071459</v>
+        <v>58.15881273146668</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>40.4424341986076</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B131">
-        <v>34.03154199748231</v>
+        <v>41.8464813903549</v>
       </c>
       <c r="C131">
-        <v>46.85332639973289</v>
+        <v>54.77457031688513</v>
       </c>
       <c r="D131">
-        <v>30.63782066545282</v>
+        <v>38.42462295038311</v>
       </c>
       <c r="E131">
-        <v>50.24704773176238</v>
+        <v>58.19642875685692</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>40.08502903110685</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B132">
-        <v>33.65286474456602</v>
+        <v>41.82197882672242</v>
       </c>
       <c r="C132">
-        <v>46.51719331764767</v>
+        <v>54.79907288051761</v>
       </c>
       <c r="D132">
-        <v>30.24788265072888</v>
+        <v>38.38714951307499</v>
       </c>
       <c r="E132">
-        <v>49.92217541148482</v>
+        <v>58.23390219416503</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>40.18503827922284</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B133">
-        <v>33.73167202558022</v>
+        <v>41.79756844415888</v>
       </c>
       <c r="C133">
-        <v>46.63840453286547</v>
+        <v>54.82348326308115</v>
       </c>
       <c r="D133">
-        <v>30.31546628832857</v>
+        <v>38.34981705454605</v>
       </c>
       <c r="E133">
-        <v>50.05461027011712</v>
+        <v>58.27123465269398</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>39.77489749973851</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B134">
-        <v>33.28244975978848</v>
+        <v>41.77324921004374</v>
       </c>
       <c r="C134">
-        <v>46.26734523968853</v>
+        <v>54.84780249719629</v>
       </c>
       <c r="D134">
-        <v>29.84555553338307</v>
+        <v>38.31262399553947</v>
       </c>
       <c r="E134">
-        <v>49.70423946609394</v>
+        <v>58.30842771170056</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>39.72287979907299</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B135">
-        <v>33.20942631796297</v>
+        <v>41.74902011089288</v>
       </c>
       <c r="C135">
-        <v>46.23633328018302</v>
+        <v>54.87203159634715</v>
       </c>
       <c r="D135">
-        <v>29.76141232388196</v>
+        <v>38.27556878606505</v>
       </c>
       <c r="E135">
-        <v>49.68434727426403</v>
+        <v>58.34548292117498</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>39.42437094762846</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B136">
-        <v>32.88997925098321</v>
+        <v>41.72488015186575</v>
       </c>
       <c r="C136">
-        <v>45.95876264427371</v>
+        <v>54.89617155537427</v>
       </c>
       <c r="D136">
-        <v>29.43088123513312</v>
+        <v>38.23864990464546</v>
       </c>
       <c r="E136">
-        <v>49.4178606601238</v>
+        <v>58.38240180259457</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>40.02711719216948</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B137">
-        <v>33.4718541585614</v>
+        <v>41.70082835628872</v>
       </c>
       <c r="C137">
-        <v>46.58238022577756</v>
+        <v>54.9202233509513</v>
       </c>
       <c r="D137">
-        <v>30.0017075243199</v>
+        <v>38.20186585758726</v>
       </c>
       <c r="E137">
-        <v>50.05252686001906</v>
+        <v>58.41918584965277</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>40.2499032548562</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B138">
-        <v>33.67383512607357</v>
+        <v>41.67686376519399</v>
       </c>
       <c r="C138">
-        <v>46.82597138363883</v>
+        <v>54.94418794204604</v>
       </c>
       <c r="D138">
-        <v>30.19267493972517</v>
+        <v>38.16521517827577</v>
       </c>
       <c r="E138">
-        <v>50.30713156998723</v>
+        <v>58.45583652896426</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>40.32870374669529</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B139">
-        <v>33.73189613778378</v>
+        <v>41.65298543687346</v>
       </c>
       <c r="C139">
-        <v>46.9255113556068</v>
+        <v>54.96806627036657</v>
       </c>
       <c r="D139">
-        <v>30.23975713383551</v>
+        <v>38.12869642649275</v>
       </c>
       <c r="E139">
-        <v>50.41765035955507</v>
+        <v>58.49235528074728</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>41.29199673830824</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B140">
-        <v>34.67451464739217</v>
+        <v>41.62919244644693</v>
       </c>
       <c r="C140">
-        <v>47.90947882922431</v>
+        <v>54.9918592607931</v>
       </c>
       <c r="D140">
-        <v>31.17143123377262</v>
+        <v>38.09230818775599</v>
       </c>
       <c r="E140">
-        <v>51.41256224284386</v>
+        <v>58.52874351948404</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>41.10230233889973</v>
+        <v>48.31052585362001</v>
       </c>
       <c r="B141">
-        <v>34.46421015678919</v>
+        <v>41.6054838854441</v>
       </c>
       <c r="C141">
-        <v>47.74039452101026</v>
+        <v>55.01556782179593</v>
       </c>
       <c r="D141">
-        <v>30.95021641993422</v>
+        <v>38.05604907268007</v>
       </c>
       <c r="E141">
-        <v>51.25438825786523</v>
+        <v>58.56500263455996</v>
       </c>
     </row>
   </sheetData>
